--- a/SourceDataTables/FigS11c.xlsx
+++ b/SourceDataTables/FigS11c.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="40">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -153,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -163,14 +163,30 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,15 +204,15 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -204,7 +220,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -212,7 +228,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -220,7 +236,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -228,7 +244,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -236,7 +252,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -244,7 +260,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -252,7 +268,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -260,7 +276,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -268,7 +284,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -276,7 +292,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -284,7 +300,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -292,7 +308,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -300,7 +316,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -308,7 +324,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -316,7 +332,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -324,7 +340,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -332,7 +348,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -340,7 +356,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -348,7 +364,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -356,7 +372,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -364,7 +380,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -372,7 +388,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -380,7 +396,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -388,7 +404,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -396,7 +412,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -404,7 +420,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -412,7 +428,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -420,7 +436,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -428,7 +444,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -436,7 +452,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -444,7 +460,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -452,7 +468,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -460,7 +476,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -468,7 +484,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -476,7 +492,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -484,7 +500,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -492,7 +508,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B39">

--- a/SourceDataTables/FigS11c.xlsx
+++ b/SourceDataTables/FigS11c.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -153,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -171,11 +171,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -187,6 +189,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,15 +208,15 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -220,7 +224,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -228,7 +232,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -236,7 +240,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -244,7 +248,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -252,7 +256,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -260,7 +264,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -268,7 +272,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -276,7 +280,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -284,7 +288,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -292,7 +296,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -300,7 +304,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -308,7 +312,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -316,7 +320,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -324,7 +328,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -332,7 +336,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -340,7 +344,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -348,7 +352,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -356,7 +360,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -364,7 +368,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -372,7 +376,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -380,7 +384,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -388,7 +392,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -396,7 +400,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -404,7 +408,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -412,7 +416,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -420,7 +424,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -428,7 +432,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -436,7 +440,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -444,7 +448,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -452,7 +456,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -460,7 +464,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -468,7 +472,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -476,7 +480,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -484,7 +488,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -492,7 +496,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -500,7 +504,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -508,7 +512,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B39">

--- a/SourceDataTables/FigS11c.xlsx
+++ b/SourceDataTables/FigS11c.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -153,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -163,34 +163,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,15 +188,15 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -224,7 +204,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -232,7 +212,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -240,7 +220,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -248,7 +228,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -256,7 +236,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -264,7 +244,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -272,7 +252,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -280,7 +260,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -288,7 +268,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -296,7 +276,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -304,7 +284,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -312,7 +292,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -320,7 +300,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -328,7 +308,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -336,7 +316,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -344,7 +324,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -352,7 +332,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -360,7 +340,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -368,7 +348,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -376,7 +356,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -384,7 +364,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -392,7 +372,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -400,7 +380,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -408,7 +388,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -416,7 +396,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -424,7 +404,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -432,7 +412,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -440,7 +420,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -448,7 +428,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -456,7 +436,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -464,7 +444,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -472,7 +452,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -480,7 +460,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -488,7 +468,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -496,7 +476,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -504,7 +484,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -512,7 +492,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39">
